--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FC7F8D-A94F-1143-8E2A-0C13AE2CCE39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B77C22-AF81-954B-9793-AB99A86EC401}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5734,7 +5734,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6122,82 +6122,89 @@
         <v>51.142857142857146</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>83</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>54.571428571428569</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -6223,7 +6230,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11566,82 +11573,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>0</v>
+      </c>
+      <c r="D401" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -11667,7 +11680,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:E400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16366,7 +16379,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -16754,82 +16767,89 @@
         <v>49.428571428571431</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>71</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>48.285714285714285</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -16854,8 +16874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:E400"/>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21818,7 +21838,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D400" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D401" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -21942,82 +21962,89 @@
         <v>41.285714285714285</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>37</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="7"/>
+        <v>40.857142857142854</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B77C22-AF81-954B-9793-AB99A86EC401}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03511037-A656-A74B-A385-22DDEBDBF172}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5734,7 +5734,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6137,6 +6137,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>61</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>56.285714285714285</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -6230,7 +6237,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11587,6 +11594,12 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>0</v>
+      </c>
+      <c r="D402" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -11680,7 +11693,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16379,7 +16392,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -16782,6 +16795,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>22</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>43</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -16874,8 +16894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21838,7 +21858,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D401" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D402" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -21977,6 +21997,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>37</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="7"/>
+        <v>40.428571428571431</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03511037-A656-A74B-A385-22DDEBDBF172}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512CBDF2-E994-6B44-A3DA-468140815D9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+    <sheetView topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5734,7 +5734,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6149,6 +6149,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>52</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>52.571428571428569</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -6237,7 +6244,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11605,6 +11612,12 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>0</v>
+      </c>
+      <c r="D403" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -11692,8 +11705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16392,7 +16405,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -16807,6 +16820,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>53</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>46.857142857142854</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -16894,8 +16914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21858,7 +21878,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D402" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D403" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22009,6 +22029,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>39</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="7"/>
+        <v>39.857142857142854</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/province/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512CBDF2-E994-6B44-A3DA-468140815D9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A48453-537E-CF43-B31D-D225ED47085A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5734,7 +5734,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6161,6 +6161,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>47</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>49.571428571428569</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -6244,7 +6251,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11623,6 +11630,12 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>0</v>
+      </c>
+      <c r="D404" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -11706,7 +11719,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16405,7 +16418,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -16832,6 +16845,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>58</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>47.285714285714285</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -16914,8 +16934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21878,7 +21898,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D403" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D404" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22041,6 +22061,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>39</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="7"/>
+        <v>39.285714285714285</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/province/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A48453-537E-CF43-B31D-D225ED47085A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8483DCC2-C642-8D4F-BBEF-4BD0A057CE58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+    <sheetView topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5734,7 +5734,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6173,6 +6173,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>51</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>50.285714285714285</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -6251,7 +6258,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11641,6 +11648,12 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>0</v>
+      </c>
+      <c r="D405" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -11719,7 +11732,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+      <selection activeCell="A405" sqref="A405:E405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16418,7 +16431,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -16857,6 +16870,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>19</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>44.428571428571431</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -16934,8 +16954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21898,7 +21918,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D404" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D405" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22073,6 +22093,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>32</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="7"/>
+        <v>37.714285714285715</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8483DCC2-C642-8D4F-BBEF-4BD0A057CE58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40533D49-4461-0540-9183-2C2D20E5EF51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5734,7 +5734,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6185,6 +6185,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>42</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>48</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -6258,7 +6265,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11659,6 +11666,12 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>0</v>
+      </c>
+      <c r="D406" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -11732,7 +11745,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:E405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16431,7 +16444,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -16882,6 +16895,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>23</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>44.857142857142854</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -16955,7 +16975,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21918,7 +21938,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D405" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D406" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22105,6 +22125,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>32</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="7"/>
+        <v>36.142857142857146</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40533D49-4461-0540-9183-2C2D20E5EF51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD944E-F1C2-9E43-9185-62066E9D06E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="9120" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+      <selection activeCell="A407" sqref="A407:D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5734,7 +5734,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6197,6 +6197,13 @@
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
+      </c>
+      <c r="C407" s="2">
+        <v>2</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>48.285714285714285</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -6264,8 +6271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11591,7 +11598,7 @@
         <v>44297</v>
       </c>
       <c r="C399" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D399" s="2">
         <v>0</v>
@@ -11602,7 +11609,7 @@
         <v>44298</v>
       </c>
       <c r="C400" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D400" s="2">
         <v>0</v>
@@ -11657,7 +11664,7 @@
         <v>44303</v>
       </c>
       <c r="C405" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D405" s="2">
         <v>0</v>
@@ -11668,7 +11675,7 @@
         <v>44304</v>
       </c>
       <c r="C406" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D406" s="2">
         <v>0</v>
@@ -11677,6 +11684,12 @@
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
+      </c>
+      <c r="C407" s="2">
+        <v>0</v>
+      </c>
+      <c r="D407" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -11744,8 +11757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+    <sheetView topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="A407" sqref="A407:D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16444,7 +16457,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -16907,6 +16920,13 @@
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
+      </c>
+      <c r="C407" s="2">
+        <v>75</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>45.857142857142854</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -16974,8 +16994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A407" sqref="A407:D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21938,7 +21958,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D406" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D407" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22137,6 +22157,13 @@
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
+      </c>
+      <c r="C407" s="2">
+        <v>42</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="7"/>
+        <v>36.857142857142854</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD944E-F1C2-9E43-9185-62066E9D06E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DABC43-3439-5947-9DA4-5A0D4C6D8506}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:D407"/>
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5734,7 +5734,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6209,6 +6209,13 @@
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>69</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>46.285714285714285</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -6271,8 +6278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C407"/>
+    <sheetView topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11695,6 +11702,12 @@
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>1</v>
+      </c>
+      <c r="D408" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -11757,8 +11770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:D407"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16457,7 +16470,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -16932,6 +16945,13 @@
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>53</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>43.285714285714285</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -16995,7 +17015,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:D407"/>
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21958,7 +21978,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D407" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D408" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22169,6 +22189,13 @@
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>44</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="7"/>
+        <v>37.857142857142854</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DABC43-3439-5947-9DA4-5A0D4C6D8506}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E0D615-9060-5349-9D15-A7B7D5DFB438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5734,7 +5734,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6221,6 +6221,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>54</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>45.285714285714285</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -6279,7 +6286,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11713,6 +11720,12 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>1</v>
+      </c>
+      <c r="D409" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -11771,7 +11784,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16470,7 +16483,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -16957,6 +16970,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>70</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>50.142857142857146</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -17014,8 +17034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+    <sheetView topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21978,7 +21998,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D408" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D409" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22201,6 +22221,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>46</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="7"/>
+        <v>39.142857142857146</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E0D615-9060-5349-9D15-A7B7D5DFB438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68F0BC9-4122-B848-8F42-0ECF3EEA20B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5734,7 +5734,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6233,6 +6233,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>64</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>47</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -6286,7 +6293,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11731,6 +11738,12 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>0</v>
+      </c>
+      <c r="D410" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -11784,7 +11797,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16483,7 +16496,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -16982,6 +16995,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>66</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>52</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -17035,7 +17055,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21998,7 +22018,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D409" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D410" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22233,6 +22253,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>46</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="7"/>
+        <v>40.142857142857146</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68F0BC9-4122-B848-8F42-0ECF3EEA20B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8CA5A7-6D2E-3944-A0D8-384A9ABA20DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>data</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Ricoverati</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -427,7 +424,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+      <selection activeCell="H398" sqref="H398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4817,12 +4814,12 @@
         <v>44193</v>
       </c>
       <c r="B295" s="2"/>
-      <c r="C295" s="2" t="s">
-        <v>6</v>
+      <c r="C295" s="2">
+        <v>0</v>
       </c>
       <c r="D295" s="3">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>8.1428571428571423</v>
       </c>
       <c r="G295" s="1"/>
       <c r="J295" s="1"/>
@@ -4837,7 +4834,7 @@
       </c>
       <c r="D296" s="3">
         <f t="shared" si="4"/>
-        <v>10.166666666666666</v>
+        <v>8.7142857142857135</v>
       </c>
       <c r="G296" s="1"/>
       <c r="J296" s="1"/>
@@ -4852,7 +4849,7 @@
       </c>
       <c r="D297" s="3">
         <f t="shared" si="4"/>
-        <v>10.333333333333334</v>
+        <v>8.8571428571428577</v>
       </c>
       <c r="G297" s="1"/>
       <c r="J297" s="1"/>
@@ -4867,7 +4864,7 @@
       </c>
       <c r="D298" s="3">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="G298" s="1"/>
       <c r="J298" s="1"/>
@@ -4881,7 +4878,7 @@
       </c>
       <c r="D299" s="3">
         <f t="shared" si="4"/>
-        <v>10.833333333333334</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="G299" s="1"/>
       <c r="J299" s="1"/>
@@ -4895,7 +4892,7 @@
       </c>
       <c r="D300" s="3">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6.8571428571428568</v>
       </c>
       <c r="G300" s="1"/>
       <c r="J300" s="1"/>
@@ -4909,7 +4906,7 @@
       </c>
       <c r="D301" s="3">
         <f t="shared" si="4"/>
-        <v>7.833333333333333</v>
+        <v>6.7142857142857144</v>
       </c>
       <c r="G301" s="1"/>
       <c r="J301" s="1"/>
@@ -6293,7 +6290,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+      <selection activeCell="G422" sqref="G422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11797,7 +11794,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+      <selection activeCell="H420" sqref="H420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8CA5A7-6D2E-3944-A0D8-384A9ABA20DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6AD29B-CD7E-7445-8A3A-C4EBD2A5DC98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="H398" sqref="H398"/>
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6242,6 +6242,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>36</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>45.428571428571431</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -6290,7 +6297,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="G422" sqref="G422"/>
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11746,6 +11753,12 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>3</v>
+      </c>
+      <c r="D411" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -11794,7 +11807,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="H420" sqref="H420"/>
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16493,7 +16506,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17004,6 +17017,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>60</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>52.285714285714285</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -17052,7 +17072,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22015,7 +22035,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D410" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D411" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22262,6 +22282,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>44</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="7"/>
+        <v>40.857142857142854</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6AD29B-CD7E-7445-8A3A-C4EBD2A5DC98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC158641-879B-B148-94C4-48A70BBA41AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+    <sheetView topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6254,6 +6254,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>45</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>44.571428571428569</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -6297,7 +6304,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11764,6 +11771,12 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>0</v>
+      </c>
+      <c r="D412" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -11807,7 +11820,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16506,7 +16519,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17029,6 +17042,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>54</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>57.285714285714285</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -17072,7 +17092,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22035,7 +22055,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D411" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D412" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22294,6 +22314,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>45</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="7"/>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC1FFD2-74C6-A047-83EE-F68F45D25637}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F836C25C-EE30-284F-81FD-DF53A54A7B32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D413"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6278,6 +6278,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>44.857142857142854</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -6311,7 +6318,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D413"/>
+      <selection activeCell="C2" sqref="C2:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10918,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="D335" s="3">
-        <f t="shared" ref="D335:D352" si="5">AVERAGE(C329:C335)</f>
+        <f t="shared" ref="D335:D398" si="5">AVERAGE(C329:C335)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -11134,6 +11141,7 @@
         <v>0</v>
       </c>
       <c r="D353" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11145,6 +11153,7 @@
         <v>0</v>
       </c>
       <c r="D354" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11156,6 +11165,7 @@
         <v>0</v>
       </c>
       <c r="D355" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11167,6 +11177,7 @@
         <v>0</v>
       </c>
       <c r="D356" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11178,6 +11189,7 @@
         <v>0</v>
       </c>
       <c r="D357" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11188,7 +11200,8 @@
       <c r="C358">
         <v>0</v>
       </c>
-      <c r="D358" s="2">
+      <c r="D358" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11199,7 +11212,8 @@
       <c r="C359">
         <v>0</v>
       </c>
-      <c r="D359" s="2">
+      <c r="D359" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11210,7 +11224,8 @@
       <c r="C360">
         <v>0</v>
       </c>
-      <c r="D360" s="2">
+      <c r="D360" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11221,7 +11236,8 @@
       <c r="C361">
         <v>0</v>
       </c>
-      <c r="D361" s="2">
+      <c r="D361" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11232,7 +11248,8 @@
       <c r="C362">
         <v>0</v>
       </c>
-      <c r="D362" s="2">
+      <c r="D362" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11243,7 +11260,8 @@
       <c r="C363">
         <v>0</v>
       </c>
-      <c r="D363" s="2">
+      <c r="D363" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11254,7 +11272,8 @@
       <c r="C364">
         <v>0</v>
       </c>
-      <c r="D364" s="2">
+      <c r="D364" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11265,7 +11284,8 @@
       <c r="C365">
         <v>0</v>
       </c>
-      <c r="D365" s="2">
+      <c r="D365" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11276,7 +11296,8 @@
       <c r="C366">
         <v>0</v>
       </c>
-      <c r="D366" s="2">
+      <c r="D366" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11287,7 +11308,8 @@
       <c r="C367">
         <v>0</v>
       </c>
-      <c r="D367" s="2">
+      <c r="D367" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11298,8 +11320,9 @@
       <c r="C368">
         <v>1</v>
       </c>
-      <c r="D368" s="2">
-        <v>0</v>
+      <c r="D368" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -11309,8 +11332,9 @@
       <c r="C369">
         <v>0</v>
       </c>
-      <c r="D369" s="2">
-        <v>0</v>
+      <c r="D369" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -11320,8 +11344,9 @@
       <c r="C370">
         <v>0</v>
       </c>
-      <c r="D370" s="2">
-        <v>0</v>
+      <c r="D370" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -11331,8 +11356,9 @@
       <c r="C371">
         <v>1</v>
       </c>
-      <c r="D371" s="2">
-        <v>0</v>
+      <c r="D371" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -11342,8 +11368,9 @@
       <c r="C372">
         <v>0</v>
       </c>
-      <c r="D372" s="2">
-        <v>0</v>
+      <c r="D372" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -11353,8 +11380,9 @@
       <c r="C373">
         <v>1</v>
       </c>
-      <c r="D373" s="2">
-        <v>0</v>
+      <c r="D373" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -11364,8 +11392,9 @@
       <c r="C374">
         <v>0</v>
       </c>
-      <c r="D374" s="2">
-        <v>0</v>
+      <c r="D374" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -11375,8 +11404,9 @@
       <c r="C375">
         <v>0</v>
       </c>
-      <c r="D375" s="2">
-        <v>0</v>
+      <c r="D375" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -11386,8 +11416,9 @@
       <c r="C376">
         <v>3</v>
       </c>
-      <c r="D376" s="2">
-        <v>0</v>
+      <c r="D376" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -11397,8 +11428,9 @@
       <c r="C377">
         <v>0</v>
       </c>
-      <c r="D377" s="2">
-        <v>0</v>
+      <c r="D377" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -11408,8 +11440,9 @@
       <c r="C378">
         <v>0</v>
       </c>
-      <c r="D378" s="2">
-        <v>0</v>
+      <c r="D378" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -11419,8 +11452,9 @@
       <c r="C379">
         <v>0</v>
       </c>
-      <c r="D379" s="2">
-        <v>0</v>
+      <c r="D379" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -11430,8 +11464,9 @@
       <c r="C380">
         <v>0</v>
       </c>
-      <c r="D380" s="2">
-        <v>0</v>
+      <c r="D380" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -11441,8 +11476,9 @@
       <c r="C381">
         <v>0</v>
       </c>
-      <c r="D381" s="2">
-        <v>0</v>
+      <c r="D381" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -11452,8 +11488,9 @@
       <c r="C382">
         <v>0</v>
       </c>
-      <c r="D382" s="2">
-        <v>0</v>
+      <c r="D382" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -11463,7 +11500,8 @@
       <c r="C383">
         <v>0</v>
       </c>
-      <c r="D383" s="2">
+      <c r="D383" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11474,8 +11512,9 @@
       <c r="C384">
         <v>1</v>
       </c>
-      <c r="D384" s="2">
-        <v>0</v>
+      <c r="D384" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -11485,8 +11524,9 @@
       <c r="C385">
         <v>0</v>
       </c>
-      <c r="D385" s="2">
-        <v>0</v>
+      <c r="D385" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -11496,8 +11536,9 @@
       <c r="C386">
         <v>0</v>
       </c>
-      <c r="D386" s="2">
-        <v>0</v>
+      <c r="D386" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -11507,8 +11548,9 @@
       <c r="C387">
         <v>2</v>
       </c>
-      <c r="D387" s="2">
-        <v>0</v>
+      <c r="D387" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -11518,8 +11560,9 @@
       <c r="C388">
         <v>0</v>
       </c>
-      <c r="D388" s="2">
-        <v>0</v>
+      <c r="D388" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -11529,8 +11572,9 @@
       <c r="C389">
         <v>1</v>
       </c>
-      <c r="D389" s="2">
-        <v>0</v>
+      <c r="D389" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -11540,8 +11584,9 @@
       <c r="C390">
         <v>1</v>
       </c>
-      <c r="D390" s="2">
-        <v>0</v>
+      <c r="D390" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -11551,8 +11596,9 @@
       <c r="C391">
         <v>0</v>
       </c>
-      <c r="D391" s="2">
-        <v>0</v>
+      <c r="D391" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -11562,8 +11608,9 @@
       <c r="C392">
         <v>1</v>
       </c>
-      <c r="D392" s="2">
-        <v>0</v>
+      <c r="D392" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -11573,8 +11620,9 @@
       <c r="C393">
         <v>0</v>
       </c>
-      <c r="D393" s="2">
-        <v>0</v>
+      <c r="D393" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -11584,8 +11632,9 @@
       <c r="C394">
         <v>2</v>
       </c>
-      <c r="D394" s="2">
-        <v>0</v>
+      <c r="D394" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -11595,8 +11644,9 @@
       <c r="C395">
         <v>1</v>
       </c>
-      <c r="D395" s="2">
-        <v>0</v>
+      <c r="D395" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -11606,8 +11656,9 @@
       <c r="C396">
         <v>2</v>
       </c>
-      <c r="D396" s="2">
-        <v>0</v>
+      <c r="D396" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -11617,8 +11668,9 @@
       <c r="C397">
         <v>0</v>
       </c>
-      <c r="D397" s="2">
-        <v>0</v>
+      <c r="D397" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -11628,8 +11680,9 @@
       <c r="C398">
         <v>0</v>
       </c>
-      <c r="D398" s="2">
-        <v>0</v>
+      <c r="D398" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -11639,8 +11692,9 @@
       <c r="C399">
         <v>0</v>
       </c>
-      <c r="D399" s="2">
-        <v>0</v>
+      <c r="D399" s="3">
+        <f t="shared" ref="D399:D414" si="6">AVERAGE(C393:C399)</f>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -11650,8 +11704,9 @@
       <c r="C400">
         <v>0</v>
       </c>
-      <c r="D400" s="2">
-        <v>0</v>
+      <c r="D400" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -11661,8 +11716,9 @@
       <c r="C401">
         <v>0</v>
       </c>
-      <c r="D401" s="2">
-        <v>0</v>
+      <c r="D401" s="3">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -11672,8 +11728,9 @@
       <c r="C402">
         <v>0</v>
       </c>
-      <c r="D402" s="2">
-        <v>0</v>
+      <c r="D402" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -11683,7 +11740,8 @@
       <c r="C403">
         <v>0</v>
       </c>
-      <c r="D403" s="2">
+      <c r="D403" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11694,7 +11752,8 @@
       <c r="C404">
         <v>0</v>
       </c>
-      <c r="D404" s="2">
+      <c r="D404" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11705,7 +11764,8 @@
       <c r="C405">
         <v>0</v>
       </c>
-      <c r="D405" s="2">
+      <c r="D405" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11716,7 +11776,8 @@
       <c r="C406">
         <v>0</v>
       </c>
-      <c r="D406" s="2">
+      <c r="D406" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11727,8 +11788,9 @@
       <c r="C407">
         <v>6</v>
       </c>
-      <c r="D407" s="2">
-        <v>0</v>
+      <c r="D407" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -11738,8 +11800,9 @@
       <c r="C408">
         <v>1</v>
       </c>
-      <c r="D408" s="2">
-        <v>0</v>
+      <c r="D408" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -11749,8 +11812,9 @@
       <c r="C409">
         <v>1</v>
       </c>
-      <c r="D409" s="2">
-        <v>0</v>
+      <c r="D409" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -11760,8 +11824,9 @@
       <c r="C410">
         <v>0</v>
       </c>
-      <c r="D410" s="2">
-        <v>0</v>
+      <c r="D410" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -11771,8 +11836,9 @@
       <c r="C411">
         <v>3</v>
       </c>
-      <c r="D411" s="2">
-        <v>0</v>
+      <c r="D411" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -11782,8 +11848,9 @@
       <c r="C412">
         <v>0</v>
       </c>
-      <c r="D412" s="2">
-        <v>0</v>
+      <c r="D412" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -11793,13 +11860,21 @@
       <c r="C413">
         <v>0</v>
       </c>
-      <c r="D413" s="2">
-        <v>0</v>
+      <c r="D413" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -11832,8 +11907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D413"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16532,7 +16607,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17079,6 +17154,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>48</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>57.285714285714285</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -17111,8 +17193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D413"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22075,7 +22157,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D413" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D414" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22359,7 +22441,13 @@
       <c r="A414" s="5">
         <v>44312</v>
       </c>
-      <c r="C414" s="2"/>
+      <c r="C414" s="2">
+        <v>45</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F836C25C-EE30-284F-81FD-DF53A54A7B32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E3ECD1-6BD6-9347-89A4-56B5C667B560}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6290,6 +6290,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>67</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>44.428571428571431</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -6317,8 +6324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D414"/>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11693,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D414" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D415" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -11880,6 +11887,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -11907,8 +11921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16607,7 +16621,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17166,6 +17180,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>96</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>63.428571428571431</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -17193,8 +17214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+    <sheetView topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22157,7 +22178,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D414" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D415" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22452,6 +22473,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>44</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="7"/>
+        <v>45</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E3ECD1-6BD6-9347-89A4-56B5C667B560}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF08BFE-6A62-0D42-97B0-B5FFC7B371C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6302,6 +6302,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>42</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -6325,7 +6332,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="C404" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11700,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D415" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D416" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -11899,6 +11906,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -11921,8 +11935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="C398" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16621,7 +16635,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17192,6 +17206,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>57</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>61.571428571428569</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -17214,8 +17235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="D416" sqref="D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22178,7 +22199,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D415" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D416" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22485,6 +22506,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>43</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="7"/>
+        <v>44.571428571428569</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF08BFE-6A62-0D42-97B0-B5FFC7B371C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D863D-C4EF-9F45-A901-8AC1F7884B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6311,12 +6311,19 @@
         <v>42.714285714285715</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>55</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>41.428571428571431</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -6332,7 +6339,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="C404" sqref="C1:C1048576"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11707,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D416" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D417" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -11915,12 +11922,19 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -11936,7 +11950,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="C398" sqref="C1:C1048576"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16635,7 +16649,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17215,12 +17229,19 @@
         <v>61.571428571428569</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>71</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>62.285714285714285</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -17236,7 +17257,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="D416" sqref="D416"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22199,7 +22220,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D416" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D417" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22515,12 +22536,19 @@
         <v>44.571428571428569</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>41</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="7"/>
+        <v>43.857142857142854</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D863D-C4EF-9F45-A901-8AC1F7884B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3AC352-78F3-EC42-B144-7782F6B91606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6326,6 +6326,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>58</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>44.571428571428569</v>
       </c>
     </row>
   </sheetData>
@@ -6339,7 +6346,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11714,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D417" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D418" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -11937,6 +11944,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
   </sheetData>
@@ -11949,8 +11963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16649,7 +16663,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17244,6 +17258,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>51</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -17256,8 +17277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+    <sheetView topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22220,7 +22241,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D417" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D418" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22551,6 +22572,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>38</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="7"/>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3AC352-78F3-EC42-B144-7782F6B91606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DB6F44-FD66-6A4B-939A-D2B5B3F4020A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J418"/>
+  <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6333,6 +6333,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>44.571428571428569</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>37</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>43.571428571428569</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>27</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>40.857142857142854</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>41.142857142857146</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -6343,10 +6519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G418"/>
+  <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11721,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D418" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D421" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -11951,6 +12127,182 @@
       <c r="D418" s="3">
         <f t="shared" si="6"/>
         <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -11961,10 +12313,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16663,7 +17015,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17265,6 +17617,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>28</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>57.285714285714285</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>3</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>50.571428571428569</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>63</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>52.714285714285715</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -17275,10 +17803,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="D421" sqref="D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22241,7 +22769,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D418" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D421" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -22579,6 +23107,182 @@
       <c r="D418" s="3">
         <f t="shared" si="7"/>
         <v>43</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>35</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="7"/>
+        <v>41.571428571428569</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>37</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="7"/>
+        <v>40.428571428571431</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>35</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DB6F44-FD66-6A4B-939A-D2B5B3F4020A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F3FA1-D133-7E49-A9A4-FA710DF64E9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6374,6 +6374,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>55</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>39.428571428571431</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -6522,7 +6529,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11897,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D421" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D422" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12168,6 +12175,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -12315,8 +12329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17015,7 +17029,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17658,6 +17672,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>43</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>45.142857142857146</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -17805,8 +17826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="D421" sqref="D421"/>
+    <sheetView topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22769,7 +22790,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D421" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D422" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23148,6 +23169,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>34</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="7"/>
+        <v>37.571428571428569</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F3FA1-D133-7E49-A9A4-FA710DF64E9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0EB10F-FE15-244F-A19B-1B3D6395D283}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6386,6 +6386,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>33.714285714285715</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -6529,7 +6536,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11904,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D422" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D423" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12187,6 +12194,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -12329,8 +12343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17029,7 +17043,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17684,6 +17698,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>92</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>50.142857142857146</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -17826,8 +17847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="C421" sqref="C421"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22790,7 +22811,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D422" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D423" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23181,6 +23202,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>35</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="7"/>
+        <v>36.428571428571431</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0EB10F-FE15-244F-A19B-1B3D6395D283}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F12796A-E233-0D46-B5CC-F047577BCBEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6398,6 +6398,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>65</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>35.142857142857146</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -6536,7 +6543,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11911,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D423" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D424" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12206,6 +12213,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -12344,7 +12358,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17043,7 +17057,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17710,6 +17724,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>35</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -17848,7 +17869,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D423"/>
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22811,7 +22832,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D423" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D424" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23214,6 +23235,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>34</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="7"/>
+        <v>35.428571428571431</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F12796A-E233-0D46-B5CC-F047577BCBEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5494ED-EF1A-4E46-A1A2-8339798C36AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="6400" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6410,6 +6410,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>60</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>35.428571428571431</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -6543,7 +6550,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11918,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D424" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D425" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12225,6 +12232,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -12358,7 +12372,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17057,7 +17071,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17736,6 +17750,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>61</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>46.428571428571431</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -17868,8 +17889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+    <sheetView topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22832,7 +22853,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D424" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D425" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23247,6 +23268,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>35</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="7"/>
+        <v>35</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5494ED-EF1A-4E46-A1A2-8339798C36AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A302EBF0-6CD2-4849-B33C-C6DD0DBF87D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="C425" sqref="C425"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6422,6 +6422,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>41</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>36</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -6550,7 +6557,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11925,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D425" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D426" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12244,6 +12251,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -12371,8 +12385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17071,7 +17085,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17762,6 +17776,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>23</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>45.714285714285715</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -17889,8 +17910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+    <sheetView topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22853,7 +22874,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D425" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D426" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23280,6 +23301,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>32</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="7"/>
+        <v>34.571428571428569</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A302EBF0-6CD2-4849-B33C-C6DD0DBF87D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD06BA3-043F-B54B-8045-E82499ABADF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6434,6 +6434,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>37</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>37.428571428571431</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -6557,7 +6564,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11932,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D426" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D427" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12263,6 +12270,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -12385,8 +12399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17085,7 +17099,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17788,6 +17802,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>4</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>45.857142857142854</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -17910,8 +17931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22874,7 +22895,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D426" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D427" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23313,6 +23334,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>32</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="7"/>
+        <v>33.857142857142854</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD06BA3-043F-B54B-8045-E82499ABADF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162B1757-027F-1545-B9D1-7C5D5750615E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6446,6 +6446,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>5</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>37.857142857142854</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -6564,7 +6571,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11939,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D427" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D428" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12282,6 +12289,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -12399,8 +12413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17099,7 +17113,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17814,6 +17828,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>66</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>46.285714285714285</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -17932,7 +17953,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22895,7 +22916,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D427" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D428" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23346,6 +23367,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>33</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="7"/>
+        <v>33.571428571428569</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162B1757-027F-1545-B9D1-7C5D5750615E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FB933C-8DC8-5345-A426-34CE8D76EAA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+      <selection activeCell="D429" sqref="D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6458,6 +6458,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>72</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="5"/>
+        <v>40.285714285714285</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -6571,7 +6578,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+      <selection activeCell="D429" sqref="D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11946,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D428" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D429" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12301,6 +12308,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -12414,7 +12428,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+      <selection activeCell="D429" sqref="D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17113,7 +17127,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17840,6 +17854,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>33</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="5"/>
+        <v>44.857142857142854</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -17953,7 +17974,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+      <selection activeCell="D429" sqref="D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22916,7 +22937,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D428" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D429" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23379,6 +23400,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>29</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="7"/>
+        <v>32.857142857142854</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FB933C-8DC8-5345-A426-34CE8D76EAA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FF2E6C-3EC9-374C-8AEF-5F7330A4527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="D429" sqref="D429"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6470,6 +6470,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>31</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>44.428571428571431</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -6578,7 +6585,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="D429" sqref="D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11953,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D429" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D430" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12320,6 +12327,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -12428,7 +12442,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="D429" sqref="D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17127,7 +17141,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17866,6 +17880,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>85</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>43.857142857142854</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -17973,8 +17994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="D429" sqref="D429"/>
+    <sheetView topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22937,7 +22958,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D429" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D430" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23412,6 +23433,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>23</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="7"/>
+        <v>31.142857142857142</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FF2E6C-3EC9-374C-8AEF-5F7330A4527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4700BA38-4995-E640-8CC2-7C92DDAC4180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="D431" sqref="D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6482,6 +6482,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>40</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>40.857142857142854</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -6585,7 +6592,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+      <selection activeCell="D431" sqref="D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11960,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D430" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D431" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12339,6 +12346,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -12442,7 +12456,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+      <selection activeCell="D431" sqref="D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17141,7 +17155,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17892,6 +17906,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>97</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>52.714285714285715</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -17994,8 +18015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="D431" sqref="D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22958,7 +22979,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D430" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D431" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23445,6 +23466,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>27</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="7"/>
+        <v>30.142857142857142</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4700BA38-4995-E640-8CC2-7C92DDAC4180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84363788-93E3-FB41-B88E-8205AF873231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="D431" sqref="D431"/>
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6494,6 +6494,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>41</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>38.142857142857146</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -6592,7 +6599,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="D431" sqref="D431"/>
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11967,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D431" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D432" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12358,6 +12365,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -12456,7 +12470,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="D431" sqref="D431"/>
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17155,7 +17169,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17918,6 +17932,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>22</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>47.142857142857146</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -18016,7 +18037,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="D431" sqref="D431"/>
+      <selection activeCell="E430" sqref="E430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22979,7 +23000,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D431" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D432" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23478,6 +23499,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>28</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="7"/>
+        <v>29.142857142857142</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84363788-93E3-FB41-B88E-8205AF873231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02CFEEC-F69F-EB45-A006-1847A8F98325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6503,82 +6503,89 @@
         <v>38.142857142857146</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>32</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>36.857142857142854</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -6598,8 +6605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11974,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D432" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D434" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12374,82 +12381,89 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -12470,7 +12484,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17169,7 +17183,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17941,82 +17955,89 @@
         <v>47.142857142857146</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>32</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>48.428571428571431</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -18036,8 +18057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="E430" sqref="E430"/>
+    <sheetView topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23000,7 +23021,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D432" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D433" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23508,82 +23529,89 @@
         <v>29.142857142857142</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>27</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="7"/>
+        <v>28.428571428571427</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02CFEEC-F69F-EB45-A006-1847A8F98325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38269170-2E25-A646-AB2C-6235E26ECEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6518,6 +6518,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>37</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>36.857142857142854</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -6606,7 +6613,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12396,6 +12403,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -12484,7 +12498,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17183,7 +17197,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17970,6 +17984,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>14</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>49.857142857142854</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -18058,7 +18079,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23021,7 +23042,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D433" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D434" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23544,6 +23565,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>22</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38269170-2E25-A646-AB2C-6235E26ECEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EA1420-0082-8844-BC81-5F1725EA74F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+    <sheetView topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6530,6 +6530,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>36.142857142857146</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -6612,8 +6619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+    <sheetView topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11988,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D434" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D435" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12415,6 +12422,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -12497,8 +12511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17197,7 +17211,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -17996,6 +18010,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>76</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>51.285714285714285</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -18078,8 +18099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+    <sheetView topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23042,7 +23063,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D434" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D435" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23577,6 +23598,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>24</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="7"/>
+        <v>25.714285714285715</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EA1420-0082-8844-BC81-5F1725EA74F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B86260-8F13-D340-B6BC-2335B7415333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6542,6 +6542,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>21</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>28.857142857142858</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -6619,8 +6626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11995,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D435" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D436" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12434,6 +12441,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -12511,8 +12525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+    <sheetView topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17211,7 +17225,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18022,6 +18036,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>58</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>54.857142857142854</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -18100,7 +18121,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23063,7 +23084,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D435" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D436" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23610,6 +23631,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>23</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="7"/>
+        <v>24.857142857142858</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B86260-8F13-D340-B6BC-2335B7415333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFB538C-3C67-134F-AE82-1535AEC633B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6554,6 +6554,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>4</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -6626,8 +6633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+    <sheetView topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12002,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D436" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D437" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12453,6 +12460,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -12526,7 +12540,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17225,7 +17239,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18048,6 +18062,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>12</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>44.428571428571431</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -18120,8 +18141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="F438" sqref="F438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23084,7 +23105,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D436" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D437" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23643,6 +23664,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>24</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFB538C-3C67-134F-AE82-1535AEC633B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389654D6-82C0-B143-AAAE-B6200708B678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="6620" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+    <sheetView topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6566,6 +6566,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>90</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>32.142857142857146</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -6634,7 +6641,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12009,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D437" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D438" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12472,6 +12479,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -12539,8 +12553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+    <sheetView topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17239,7 +17253,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18074,6 +18088,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>63</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>39.571428571428569</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -18141,8 +18162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="F438" sqref="F438"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="C436" sqref="C436:C438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23105,7 +23126,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D437" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D438" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23676,6 +23697,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>21</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="7"/>
+        <v>24.142857142857142</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389654D6-82C0-B143-AAAE-B6200708B678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDE9CCF-1415-8347-9CAB-9A946CCEA81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6578,6 +6578,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>41</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>32.142857142857146</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -6641,7 +6648,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12016,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D438" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D439" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12491,6 +12498,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -12554,7 +12568,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17253,7 +17267,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18100,6 +18114,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>40</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>42.142857142857146</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -18163,7 +18184,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="C436" sqref="C436:C438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23126,7 +23147,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D438" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D439" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23709,6 +23730,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>26</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="7"/>
+        <v>23.857142857142858</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDE9CCF-1415-8347-9CAB-9A946CCEA81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6097C568-7F2D-7140-AA2B-BA9C901C9F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="2580" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A440" sqref="A440:D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6590,6 +6590,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>15</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>29.714285714285715</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -6647,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+    <sheetView topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12023,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D439" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D440" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12510,6 +12517,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -12567,8 +12581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+    <sheetView topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17267,7 +17281,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18126,6 +18140,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>21</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -18183,8 +18204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23147,7 +23168,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D439" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D440" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23742,6 +23763,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>22</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="7"/>
+        <v>23.142857142857142</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6097C568-7F2D-7140-AA2B-BA9C901C9F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3AC675-6F7B-B449-BF37-9C1F81B45338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A440" sqref="A440:D440"/>
+    <sheetView topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6602,6 +6602,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>18</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -6655,7 +6662,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12030,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D440" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D441" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12529,6 +12536,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -12582,7 +12596,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17281,7 +17295,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18152,6 +18166,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>38.571428571428569</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -18204,8 +18225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="E426" sqref="E426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23168,7 +23189,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D440" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D441" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23775,6 +23796,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>20</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="7"/>
+        <v>22.857142857142858</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3AC675-6F7B-B449-BF37-9C1F81B45338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4C1542-6EBE-D543-A75E-DA706D87DBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6614,6 +6614,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>2</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>27.285714285714285</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -6662,7 +6669,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12037,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D441" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D442" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12548,6 +12555,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -12596,7 +12610,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17295,7 +17309,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18178,6 +18192,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>36</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>32.857142857142854</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -18225,8 +18246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="E426" sqref="E426"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23189,7 +23210,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D441" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D442" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23808,6 +23829,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>21</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="7"/>
+        <v>22.428571428571427</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4C1542-6EBE-D543-A75E-DA706D87DBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FC1EFC-800E-5B4F-9B57-38365B24A0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6626,6 +6626,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>32</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>28.857142857142858</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -6669,7 +6676,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12044,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D442" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D443" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12567,6 +12574,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -12610,7 +12624,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17309,7 +17323,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18204,6 +18218,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>73</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -18247,7 +18268,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23210,7 +23231,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D442" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D443" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23841,6 +23862,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>22</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="7"/>
+        <v>22.285714285714285</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FC1EFC-800E-5B4F-9B57-38365B24A0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33814857-060E-094D-8666-3028391C0502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6638,6 +6638,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>18</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>30.857142857142858</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -6676,7 +6683,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12051,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D443" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D444" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12586,6 +12593,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -12623,8 +12637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+    <sheetView topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17323,7 +17337,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18230,6 +18244,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>20</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>36.142857142857146</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -18268,7 +18289,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23231,7 +23252,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D443" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D444" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23874,6 +23895,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>19</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="7"/>
+        <v>21.571428571428573</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33814857-060E-094D-8666-3028391C0502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C306EE60-A21A-1846-A926-C2C94BB50EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6650,6 +6650,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>31</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>22.428571428571427</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -6682,8 +6689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+    <sheetView topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12058,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D444" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D445" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12605,6 +12612,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -12638,7 +12652,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17337,7 +17351,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18256,6 +18270,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>28</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>31.142857142857142</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -18289,7 +18310,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23252,7 +23273,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D444" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D445" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23907,6 +23928,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>20</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="7"/>
+        <v>21.428571428571427</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C306EE60-A21A-1846-A926-C2C94BB50EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA460E7-52C3-4645-9984-E384E2E59B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6662,6 +6662,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>9</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>17.857142857142858</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -6690,7 +6697,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12065,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D445" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D446" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12624,6 +12631,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -12652,7 +12666,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17351,7 +17365,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18282,6 +18296,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>66</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>34.857142857142854</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -18309,8 +18330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23273,7 +23294,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D445" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D446" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23940,6 +23961,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>21</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="7"/>
+        <v>20.714285714285715</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA460E7-52C3-4645-9984-E384E2E59B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C8F34B-5AF1-E74F-9A64-ABDFA9C127E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6675,10 +6675,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>5</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>16.428571428571427</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>9</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>15.142857142857142</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -6696,8 +6710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12072,7 +12086,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D446" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D448" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12644,10 +12658,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -12666,7 +12694,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17365,7 +17393,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18309,10 +18337,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>37</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>37.142857142857146</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>26</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>40.857142857142854</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -18330,8 +18372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23294,7 +23336,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D446" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D448" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -23974,10 +24016,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>21</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="7"/>
+        <v>20.571428571428573</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>20</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="7"/>
+        <v>20.571428571428573</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C8F34B-5AF1-E74F-9A64-ABDFA9C127E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5114D0-C7F0-4942-9D67-D4527F483445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6695,9 +6695,16 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>14.857142857142858</v>
       </c>
     </row>
   </sheetData>
@@ -6711,7 +6718,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12086,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D448" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D449" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12678,9 +12685,16 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
   </sheetData>
@@ -12693,8 +12707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+    <sheetView topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17393,7 +17407,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18357,9 +18371,16 @@
         <v>40.857142857142854</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>75</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>46.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -18373,7 +18394,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23336,7 +23357,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D448" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D449" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -24036,9 +24057,16 @@
         <v>20.571428571428573</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>20</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="7"/>
+        <v>20.428571428571427</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5114D0-C7F0-4942-9D67-D4527F483445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D337E2B0-3D44-7C46-A0BB-0926099C6A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="6260" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J449"/>
+  <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6705,6 +6705,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>14.857142857142858</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>9</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>11.571428571428571</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -6715,10 +6872,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G449"/>
+  <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12093,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D449" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D450" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12695,6 +12852,163 @@
       <c r="D449" s="3">
         <f t="shared" si="6"/>
         <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -12705,10 +13019,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17407,7 +17721,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18381,6 +18695,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>46.428571428571431</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>106</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>51.142857142857146</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -18391,10 +18862,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:A479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23357,7 +23828,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D449" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D450" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -24067,6 +24538,163 @@
       <c r="D449" s="3">
         <f t="shared" si="7"/>
         <v>20.428571428571427</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>20</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="7"/>
+        <v>20.142857142857142</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D337E2B0-3D44-7C46-A0BB-0926099C6A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A20B4B2-6097-3847-91B8-2D774AD2768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6722,6 +6722,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>10</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>10.428571428571429</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -6874,8 +6881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+    <sheetView topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12250,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D450" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D451" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12869,6 +12876,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -13021,8 +13035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+    <sheetView topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17721,7 +17735,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18712,6 +18726,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>20</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>51.142857142857146</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -18864,8 +18885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:A479"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23828,7 +23849,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D450" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D451" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -24555,6 +24576,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>18</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A20B4B2-6097-3847-91B8-2D774AD2768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E455FEB-1E9D-0148-AD8B-5C8EFA2F8CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="5460" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6734,6 +6734,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>6.1428571428571432</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -6882,7 +6889,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12257,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D451" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D452" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12888,6 +12895,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -13035,8 +13049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17735,7 +17749,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18738,6 +18752,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>43</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>53.285714285714285</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -18885,8 +18906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23849,7 +23870,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D451" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D452" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -24588,6 +24609,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>20</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E455FEB-1E9D-0148-AD8B-5C8EFA2F8CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CD354D-6A06-CE4C-800E-2D60B227A6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="3540" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6746,6 +6746,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>17</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>7.2857142857142856</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -6889,7 +6896,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12264,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D452" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D453" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12907,6 +12914,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -13049,8 +13063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="K451" sqref="K451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17749,7 +17763,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18764,6 +18778,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>37</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>49.142857142857146</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -18907,7 +18928,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23870,7 +23891,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D452" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D453" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -24621,6 +24642,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>20</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="7"/>
+        <v>19.857142857142858</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CD354D-6A06-CE4C-800E-2D60B227A6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0523072-5C8A-C543-88F4-364C0EAC55B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6758,6 +6758,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>6</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>7.4285714285714288</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -6896,7 +6903,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12271,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D453" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D454" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12926,6 +12933,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -13064,7 +13078,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="K451" sqref="K451"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17763,7 +17777,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18790,6 +18804,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>22</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>47</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -18928,7 +18949,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23891,7 +23912,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D453" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D454" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -24654,6 +24675,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>20</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="7"/>
+        <v>19.714285714285715</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0523072-5C8A-C543-88F4-364C0EAC55B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3381EDA1-F7BA-C545-8A06-F3DFE344C9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="A455" sqref="A455:D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6771,10 +6771,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>9</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>7.4285714285714288</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>7.5714285714285712</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -6902,8 +6916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+    <sheetView topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="A455" sqref="A455:D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12278,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D454" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D456" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12946,10 +12960,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>2</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -13077,8 +13105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+    <sheetView topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="A455" sqref="A455:D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17777,7 +17805,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18817,10 +18845,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>40</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>25</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>41.857142857142854</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -18948,8 +18990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A455" sqref="A455:D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23912,7 +23954,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D454" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D456" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -24688,10 +24730,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>17</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="7"/>
+        <v>19.285714285714285</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>16</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="7"/>
+        <v>18.714285714285715</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3381EDA1-F7BA-C545-8A06-F3DFE344C9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC7B9A2-B77B-8149-B25C-2208293558F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A455" sqref="A455:D456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6794,6 +6794,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>13</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -6917,7 +6924,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A455" sqref="A455:D456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12292,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D456" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D457" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -12983,6 +12990,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457" s="3">
+        <v>1</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -13106,7 +13120,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A455" sqref="A455:D456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17805,7 +17819,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18868,6 +18882,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>37</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>32</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -18991,7 +19012,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A455" sqref="A455:D456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23954,7 +23975,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D456" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D457" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -24753,6 +24774,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>16</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="7"/>
+        <v>18.142857142857142</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC7B9A2-B77B-8149-B25C-2208293558F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9410BE6-9073-3C42-80BA-0D4974336A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6806,6 +6806,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>5</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>7.4285714285714288</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -6924,7 +6931,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12299,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D457" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D458" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -13002,6 +13009,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -13120,7 +13134,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17819,7 +17833,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18894,6 +18908,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>38</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>34.571428571428569</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -19012,7 +19033,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="G457" sqref="G457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23975,7 +23996,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D457" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D458" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -24786,6 +24807,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>15</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="7"/>
+        <v>17.714285714285715</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9410BE6-9073-3C42-80BA-0D4974336A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB1D65F-444F-A947-8998-F0E91B929AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6818,6 +6818,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>6</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -6931,7 +6938,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12306,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D458" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D459" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -13021,6 +13028,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -13133,8 +13147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17833,7 +17847,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18920,6 +18934,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>15</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>30.571428571428573</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -19032,8 +19053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="G457" sqref="G457"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23996,7 +24017,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D458" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D459" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -24819,6 +24840,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>14</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="7"/>
+        <v>16.857142857142858</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB1D65F-444F-A947-8998-F0E91B929AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B180D79-F083-5640-BAC7-61E73047D4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6830,6 +6830,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>4</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>6.2857142857142856</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -6938,7 +6945,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12313,7 +12320,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D459" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D460" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -13040,6 +13047,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -13148,7 +13162,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17847,7 +17861,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18946,6 +18960,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>14</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>27.285714285714285</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -19054,7 +19075,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24017,7 +24038,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D459" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D460" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -24852,6 +24873,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>13</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="7"/>
+        <v>15.857142857142858</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B180D79-F083-5640-BAC7-61E73047D4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4D184F-E68E-9648-9C5E-1A922D7CE4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6843,93 +6843,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>5</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>6.1428571428571432</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>12</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>6.5714285714285712</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>6.5714285714285712</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>8</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>5.8571428571428568</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>15</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>7.2857142857142856</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>6</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>7.2857142857142856</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -6944,8 +6986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12320,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399:D460" si="6">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399:D462" si="6">AVERAGE(C393:C399)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -13060,93 +13102,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" ref="D463:D466" si="7">AVERAGE(C457:C463)</f>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -13161,8 +13245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17861,7 +17945,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -18973,93 +19057,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>24.142857142857142</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>17</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>20.857142857142858</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>11</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>18.857142857142858</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>14</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>15.571428571428571</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>4</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>10.714285714285714</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>9</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>9.8571428571428577</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -19074,8 +19200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24038,7 +24164,7 @@
         <v>40</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D460" si="7">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D463" si="7">AVERAGE(C384:C390)</f>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -24886,93 +25012,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>12</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="7"/>
+        <v>14.714285714285714</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>11</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="7"/>
+        <v>13.857142857142858</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>12</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="7"/>
+        <v>13.285714285714286</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>12</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" ref="D464:D466" si="8">AVERAGE(C458:C464)</f>
+        <v>12.714285714285714</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>11</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="8"/>
+        <v>12.142857142857142</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>10</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="8"/>
+        <v>11.571428571428571</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4D184F-E68E-9648-9C5E-1A922D7CE4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4622D771-5DD5-BF4E-942F-2DD95C8D4E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="6520" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+      <selection activeCell="C467" sqref="C467:C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>51</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D467" si="5">AVERAGE(C362:C368)</f>
         <v>30.285714285714285</v>
       </c>
     </row>
@@ -6915,10 +6915,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>8</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>7.8571428571428568</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>4</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <v>7.7142857142857144</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -6986,8 +7000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+    <sheetView topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13130,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="D463" s="3">
-        <f t="shared" ref="D463:D466" si="7">AVERAGE(C457:C463)</f>
+        <f t="shared" ref="D463:D468" si="7">AVERAGE(C457:C463)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -13174,10 +13188,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -13245,8 +13273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17945,7 +17973,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D467" si="5">AVERAGE(C362:C368)</f>
         <v>7</v>
       </c>
     </row>
@@ -19129,10 +19157,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>2</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>17</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <v>10.571428571428571</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -19200,8 +19242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+    <sheetView topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25052,7 +25094,7 @@
         <v>12</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D466" si="8">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D468" si="8">AVERAGE(C458:C464)</f>
         <v>12.714285714285714</v>
       </c>
     </row>
@@ -25084,10 +25126,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>7</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="8"/>
+        <v>10.714285714285714</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>7</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4622D771-5DD5-BF4E-942F-2DD95C8D4E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E09963-4CC9-9449-8303-8D5E36B31E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="C467" sqref="C467:C468"/>
+    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="C469" sqref="C469:C471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -6939,15 +6939,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>3</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="6"/>
+        <v>6.4285714285714288</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="6"/>
+        <v>6.2857142857142856</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>3</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="6"/>
+        <v>5.5714285714285712</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -7001,7 +7022,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13144,7 +13165,7 @@
         <v>0</v>
       </c>
       <c r="D463" s="3">
-        <f t="shared" ref="D463:D468" si="7">AVERAGE(C457:C463)</f>
+        <f t="shared" ref="D463:D471" si="7">AVERAGE(C457:C463)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -13212,15 +13233,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -13273,8 +13315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+    <sheetView topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19173,7 +19215,7 @@
         <v>17</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
         <v>10.571428571428571</v>
       </c>
     </row>
@@ -19181,15 +19223,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="6"/>
+        <v>8.2857142857142865</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>9</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>25</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="6"/>
+        <v>9.5714285714285712</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -19242,8 +19305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+    <sheetView topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25094,7 +25157,7 @@
         <v>12</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D468" si="8">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D471" si="8">AVERAGE(C458:C464)</f>
         <v>12.714285714285714</v>
       </c>
     </row>
@@ -25150,15 +25213,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>6</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="8"/>
+        <v>9.2857142857142865</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>6</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="8"/>
+        <v>8.4285714285714288</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>6</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="8"/>
+        <v>7.5714285714285712</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E09963-4CC9-9449-8303-8D5E36B31E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51B0D38-A581-2A4F-8765-ADBF2BCB185B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="8880" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="C469" sqref="C469:C471"/>
+    <sheetView topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -6974,6 +6974,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>4</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -7022,7 +7029,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13165,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="D463" s="3">
-        <f t="shared" ref="D463:D471" si="7">AVERAGE(C457:C463)</f>
+        <f t="shared" ref="D463:D472" si="7">AVERAGE(C457:C463)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -13268,6 +13275,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -13315,8 +13329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="C472" sqref="C472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19215,7 +19229,7 @@
         <v>17</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
         <v>10.571428571428571</v>
       </c>
     </row>
@@ -19258,6 +19272,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>8</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="6"/>
+        <v>10.142857142857142</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -19306,7 +19327,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25157,7 +25178,7 @@
         <v>12</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D471" si="8">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D472" si="8">AVERAGE(C458:C464)</f>
         <v>12.714285714285714</v>
       </c>
     </row>
@@ -25248,6 +25269,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>6</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="8"/>
+        <v>6.8571428571428568</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51B0D38-A581-2A4F-8765-ADBF2BCB185B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBA0DF0-CFD2-1B41-ACE6-42743B925A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="6520" yWindow="700" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -6987,15 +6987,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="6"/>
+        <v>3.4285714285714284</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>3</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857144</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -7029,7 +7050,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13172,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="D463" s="3">
-        <f t="shared" ref="D463:D472" si="7">AVERAGE(C457:C463)</f>
+        <f t="shared" ref="D463:D475" si="7">AVERAGE(C457:C463)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -13288,15 +13309,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -13329,8 +13371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="C472" sqref="C472"/>
+    <sheetView topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19229,7 +19271,7 @@
         <v>17</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
         <v>10.571428571428571</v>
       </c>
     </row>
@@ -19285,15 +19327,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="6"/>
+        <v>9.1428571428571423</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>14</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -19326,8 +19389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25178,7 +25241,7 @@
         <v>12</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D472" si="8">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D475" si="8">AVERAGE(C458:C464)</f>
         <v>12.714285714285714</v>
       </c>
     </row>
@@ -25282,15 +25345,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>5</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="8"/>
+        <v>6.1428571428571432</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>4</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="8"/>
+        <v>5.7142857142857144</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>3</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="8"/>
+        <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBA0DF0-CFD2-1B41-ACE6-42743B925A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AB60A5-F155-7E40-BEF6-E778BDD338B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="700" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="4900" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J479"/>
+  <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7023,20 +7023,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>2</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>3</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>9</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>2</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>3</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -7047,10 +7265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G479"/>
+  <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13193,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="D463" s="3">
-        <f t="shared" ref="D463:D475" si="7">AVERAGE(C457:C463)</f>
+        <f t="shared" ref="D463:D484" si="7">AVERAGE(C457:C463)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -13345,20 +13563,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -13369,10 +13805,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
+      <selection activeCell="C484" sqref="C484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19271,7 +19707,7 @@
         <v>17</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
         <v>10.571428571428571</v>
       </c>
     </row>
@@ -19363,20 +19799,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>3</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>8.8571428571428577</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>3</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>4</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>4.1428571428571432</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>2</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>4.1428571428571432</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>4</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>2</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -19387,10 +20041,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25241,7 +25895,7 @@
         <v>12</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D475" si="8">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D484" si="8">AVERAGE(C458:C464)</f>
         <v>12.714285714285714</v>
       </c>
     </row>
@@ -25381,20 +26035,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>3</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="8"/>
+        <v>4.7142857142857144</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>3</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="8"/>
+        <v>4.2857142857142856</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>4</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>4</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="8"/>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>4</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="8"/>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>4</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="8"/>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>4</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="8"/>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>4</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="8"/>
+        <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>4</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AB60A5-F155-7E40-BEF6-E778BDD338B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C186CA-FAA0-3747-AF08-1F5BD9D832ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7130,6 +7130,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>6</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -7268,7 +7275,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13411,7 +13418,7 @@
         <v>0</v>
       </c>
       <c r="D463" s="3">
-        <f t="shared" ref="D463:D484" si="7">AVERAGE(C457:C463)</f>
+        <f t="shared" ref="D463:D485" si="7">AVERAGE(C457:C463)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -13670,6 +13677,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -13807,8 +13821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="C484" sqref="C484"/>
+    <sheetView topLeftCell="A462" workbookViewId="0">
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19707,7 +19721,7 @@
         <v>17</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
         <v>10.571428571428571</v>
       </c>
     </row>
@@ -19906,6 +19920,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>4</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -20043,8 +20064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25895,7 +25916,7 @@
         <v>12</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D484" si="8">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D485" si="8">AVERAGE(C458:C464)</f>
         <v>12.714285714285714</v>
       </c>
     </row>
@@ -26142,6 +26163,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>4</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Crotone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C186CA-FAA0-3747-AF08-1F5BD9D832ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285E860D-B225-094A-9E1C-B3CC1FF437C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D493" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7143,40 +7143,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>4</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>9</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="6"/>
+        <v>3.5714285714285716</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>4</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" si="6"/>
+        <v>3.7142857142857144</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>2</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -7274,8 +7330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="C493" sqref="C493:D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13690,40 +13746,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" ref="D486" si="8">AVERAGE(C480:C486)</f>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" ref="D487" si="9">AVERAGE(C481:C487)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" ref="D488" si="10">AVERAGE(C482:C488)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" ref="D489" si="11">AVERAGE(C483:C489)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" ref="D490" si="12">AVERAGE(C484:C490)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" ref="D491" si="13">AVERAGE(C485:C491)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" ref="D492" si="14">AVERAGE(C486:C492)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" ref="D493" si="15">AVERAGE(C487:C493)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -13822,7 +13934,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+      <selection activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19721,7 +19833,7 @@
         <v>17</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D487" si="6">AVERAGE(C462:C468)</f>
         <v>10.571428571428571</v>
       </c>
     </row>
@@ -19933,40 +20045,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>13</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>3.5714285714285716</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>5</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>5</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" ref="D488:D493" si="7">AVERAGE(C482:C488)</f>
+        <v>4.1428571428571432</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>4</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="7"/>
+        <v>4.7142857142857144</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" si="7"/>
+        <v>4.4285714285714288</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="7"/>
+        <v>4.7142857142857144</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="7"/>
+        <v>4.2857142857142856</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>4</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -20064,8 +20232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25916,7 +26084,7 @@
         <v>12</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D485" si="8">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D488" si="8">AVERAGE(C458:C464)</f>
         <v>12.714285714285714</v>
       </c>
     </row>
@@ -26176,40 +26344,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>4</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>3</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="8"/>
+        <v>3.8571428571428572</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="8"/>
+        <v>3.4285714285714284</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" ref="D489" si="9">AVERAGE(C483:C489)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" ref="D490:D491" si="10">AVERAGE(C484:C490)</f>
+        <v>2.5714285714285716</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="10"/>
+        <v>2.2857142857142856</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>2</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" ref="D492:D493" si="11">AVERAGE(C486:C492)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>2</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="11"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285E860D-B225-094A-9E1C-B3CC1FF437C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6E11D9-08A7-6440-950C-DC7D256905BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="D493" sqref="D493"/>
+    <sheetView topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D493" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D494" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7238,6 +7238,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -7331,7 +7338,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="C493" sqref="C493:D493"/>
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13841,6 +13848,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" ref="D494" si="16">AVERAGE(C488:C494)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -13933,8 +13947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="D493" sqref="D493"/>
+    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20073,7 +20087,7 @@
         <v>5</v>
       </c>
       <c r="D488" s="3">
-        <f t="shared" ref="D488:D493" si="7">AVERAGE(C482:C488)</f>
+        <f t="shared" ref="D488:D494" si="7">AVERAGE(C482:C488)</f>
         <v>4.1428571428571432</v>
       </c>
     </row>
@@ -20140,6 +20154,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>3</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="7"/>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -20233,7 +20254,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="D493" sqref="D493"/>
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26420,7 +26441,7 @@
         <v>2</v>
       </c>
       <c r="D492" s="3">
-        <f t="shared" ref="D492:D493" si="11">AVERAGE(C486:C492)</f>
+        <f t="shared" ref="D492:D494" si="11">AVERAGE(C486:C492)</f>
         <v>2</v>
       </c>
     </row>
@@ -26439,6 +26460,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>2</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="11"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6E11D9-08A7-6440-950C-DC7D256905BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608C97FD-1B15-544D-9E38-7562F60D1232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="7280" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+      <selection activeCell="C495" sqref="C495:C496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D494" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D496" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7251,10 +7251,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>2</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7142857142857142</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>4</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -7337,8 +7351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+    <sheetView topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13861,10 +13875,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" ref="D495:D496" si="17">AVERAGE(C489:C495)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -13948,7 +13976,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20087,7 +20115,7 @@
         <v>5</v>
       </c>
       <c r="D488" s="3">
-        <f t="shared" ref="D488:D494" si="7">AVERAGE(C482:C488)</f>
+        <f t="shared" ref="D488:D496" si="7">AVERAGE(C482:C488)</f>
         <v>4.1428571428571432</v>
       </c>
     </row>
@@ -20167,10 +20195,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>4</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="7"/>
+        <v>2.5714285714285716</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>2</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="7"/>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -20254,7 +20296,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26441,7 +26483,7 @@
         <v>2</v>
       </c>
       <c r="D492" s="3">
-        <f t="shared" ref="D492:D494" si="11">AVERAGE(C486:C492)</f>
+        <f t="shared" ref="D492:D496" si="11">AVERAGE(C486:C492)</f>
         <v>2</v>
       </c>
     </row>
@@ -26473,10 +26515,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495" s="3">
+        <v>2</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="11"/>
+        <v>1.7142857142857142</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>2</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="11"/>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Crotone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608C97FD-1B15-544D-9E38-7562F60D1232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B868EAF-5F9C-4443-9B41-03B14ACD9BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="8580" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="C495" sqref="C495:C496"/>
+    <sheetView topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497:C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D496" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D499" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7271,72 +7271,93 @@
         <v>1.7142857142857142</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>3</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>3</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>10</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="6"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -7352,7 +7373,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+      <selection activeCell="A497" sqref="A497:D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13879,7 +13900,7 @@
         <v>0</v>
       </c>
       <c r="D495" s="3">
-        <f t="shared" ref="D495:D496" si="17">AVERAGE(C489:C495)</f>
+        <f t="shared" ref="D495:D499" si="17">AVERAGE(C489:C495)</f>
         <v>0</v>
       </c>
     </row>
@@ -13895,72 +13916,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -13975,8 +14017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+    <sheetView topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497:C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20115,7 +20157,7 @@
         <v>5</v>
       </c>
       <c r="D488" s="3">
-        <f t="shared" ref="D488:D496" si="7">AVERAGE(C482:C488)</f>
+        <f t="shared" ref="D488:D499" si="7">AVERAGE(C482:C488)</f>
         <v>4.1428571428571432</v>
       </c>
     </row>
@@ -20215,72 +20257,93 @@
         <v>2.2857142857142856</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>2</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="7"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>7</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="7"/>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>7</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1428571428571432</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -20295,8 +20358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497:C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26483,7 +26546,7 @@
         <v>2</v>
       </c>
       <c r="D492" s="3">
-        <f t="shared" ref="D492:D496" si="11">AVERAGE(C486:C492)</f>
+        <f t="shared" ref="D492:D499" si="11">AVERAGE(C486:C492)</f>
         <v>2</v>
       </c>
     </row>
@@ -26535,72 +26598,93 @@
         <v>1.8571428571428572</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>2</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>2</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>2</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B868EAF-5F9C-4443-9B41-03B14ACD9BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2537FA-83CC-4541-BD3C-8AEF487B5C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="7820" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497:C499"/>
+      <selection activeCell="C500" sqref="C500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D499" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D500" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7310,6 +7310,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>13</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -7373,7 +7380,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:D499"/>
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13900,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="D495" s="3">
-        <f t="shared" ref="D495:D499" si="17">AVERAGE(C489:C495)</f>
+        <f t="shared" ref="D495:D500" si="17">AVERAGE(C489:C495)</f>
         <v>0</v>
       </c>
     </row>
@@ -13955,6 +13962,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -14017,8 +14031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497:C499"/>
+    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20157,7 +20171,7 @@
         <v>5</v>
       </c>
       <c r="D488" s="3">
-        <f t="shared" ref="D488:D499" si="7">AVERAGE(C482:C488)</f>
+        <f t="shared" ref="D488:D500" si="7">AVERAGE(C482:C488)</f>
         <v>4.1428571428571432</v>
       </c>
     </row>
@@ -20296,6 +20310,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>8</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="7"/>
+        <v>4.7142857142857144</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -20358,8 +20379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497:C499"/>
+    <sheetView topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26546,7 +26567,7 @@
         <v>2</v>
       </c>
       <c r="D492" s="3">
-        <f t="shared" ref="D492:D499" si="11">AVERAGE(C486:C492)</f>
+        <f t="shared" ref="D492:D500" si="11">AVERAGE(C486:C492)</f>
         <v>2</v>
       </c>
     </row>
@@ -26637,6 +26658,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="11"/>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2537FA-83CC-4541-BD3C-8AEF487B5C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FE2D82-CC40-4D49-92D6-5444244FB014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="8220" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="C500" sqref="C500"/>
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D500" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D504" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7323,20 +7323,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>12</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="6"/>
+        <v>6.7142857142857144</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>16</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="6"/>
+        <v>8.7142857142857135</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>10</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="6"/>
+        <v>9.5714285714285712</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>14</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="6"/>
+        <v>11.142857142857142</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -7379,8 +7407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView topLeftCell="A480" workbookViewId="0">
+      <selection activeCell="A501" sqref="A501:D504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13907,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="D495" s="3">
-        <f t="shared" ref="D495:D500" si="17">AVERAGE(C489:C495)</f>
+        <f t="shared" ref="D495:D504" si="17">AVERAGE(C489:C495)</f>
         <v>0</v>
       </c>
     </row>
@@ -13975,20 +14003,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -14032,7 +14088,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20171,7 +20227,7 @@
         <v>5</v>
       </c>
       <c r="D488" s="3">
-        <f t="shared" ref="D488:D500" si="7">AVERAGE(C482:C488)</f>
+        <f t="shared" ref="D488:D504" si="7">AVERAGE(C482:C488)</f>
         <v>4.1428571428571432</v>
       </c>
     </row>
@@ -20323,20 +20379,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="7"/>
+        <v>4.4285714285714288</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>3</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="7"/>
+        <v>4.2857142857142856</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>2</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="7"/>
+        <v>4.2857142857142856</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1428571428571432</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -20380,7 +20464,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+      <selection activeCell="A501" sqref="A501:D504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26567,7 +26651,7 @@
         <v>2</v>
       </c>
       <c r="D492" s="3">
-        <f t="shared" ref="D492:D500" si="11">AVERAGE(C486:C492)</f>
+        <f t="shared" ref="D492:D504" si="11">AVERAGE(C486:C492)</f>
         <v>2</v>
       </c>
     </row>
@@ -26671,20 +26755,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="11"/>
+        <v>1.7142857142857142</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="11"/>
+        <v>1.5714285714285714</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="11"/>
+        <v>1.4285714285714286</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FE2D82-CC40-4D49-92D6-5444244FB014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD21B612-D678-994A-BBBF-6344FDB6A395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="5260" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+    <sheetView topLeftCell="A480" workbookViewId="0">
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D504" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D506" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7371,10 +7371,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="6"/>
+        <v>10.857142857142858</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>17</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="6"/>
+        <v>11.857142857142858</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -7408,7 +7422,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="A501" sqref="A501:D504"/>
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14051,10 +14065,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" ref="D505:D506" si="18">AVERAGE(C499:C505)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -14087,8 +14115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+    <sheetView topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20227,7 +20255,7 @@
         <v>5</v>
       </c>
       <c r="D488" s="3">
-        <f t="shared" ref="D488:D504" si="7">AVERAGE(C482:C488)</f>
+        <f t="shared" ref="D488:D506" si="7">AVERAGE(C482:C488)</f>
         <v>4.1428571428571432</v>
       </c>
     </row>
@@ -20427,10 +20455,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="7"/>
+        <v>3.2857142857142856</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="7"/>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -20463,8 +20505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="A501" sqref="A501:D504"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26803,10 +26845,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" ref="D505:D506" si="12">AVERAGE(C499:C505)</f>
+        <v>1.1428571428571428</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="12"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD21B612-D678-994A-BBBF-6344FDB6A395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDF0688-5BDD-A442-941A-F54F82C79B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+    <sheetView topLeftCell="A495" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D506" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D507" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7394,6 +7394,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>25</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="6"/>
+        <v>13.571428571428571</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -7422,7 +7429,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14088,6 +14095,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" ref="D507" si="19">AVERAGE(C501:C507)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -14116,7 +14130,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20255,7 +20269,7 @@
         <v>5</v>
       </c>
       <c r="D488" s="3">
-        <f t="shared" ref="D488:D506" si="7">AVERAGE(C482:C488)</f>
+        <f t="shared" ref="D488:D507" si="7">AVERAGE(C482:C488)</f>
         <v>4.1428571428571432</v>
       </c>
     </row>
@@ -20478,6 +20492,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>4</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="7"/>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -20506,7 +20527,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26849,7 +26870,7 @@
         <v>1</v>
       </c>
       <c r="D505" s="3">
-        <f t="shared" ref="D505:D506" si="12">AVERAGE(C499:C505)</f>
+        <f t="shared" ref="D505:D507" si="12">AVERAGE(C499:C505)</f>
         <v>1.1428571428571428</v>
       </c>
     </row>
@@ -26868,6 +26889,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>2</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="12"/>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDF0688-5BDD-A442-941A-F54F82C79B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D006F7B-EFB3-E74B-B7B9-E6B918B1201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="10340" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D507" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D508" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7406,6 +7406,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>21</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="6"/>
+        <v>14.857142857142858</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -7429,7 +7436,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14107,6 +14114,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" ref="D508" si="20">AVERAGE(C502:C508)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -14129,8 +14143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+    <sheetView topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20269,7 +20283,7 @@
         <v>5</v>
       </c>
       <c r="D488" s="3">
-        <f t="shared" ref="D488:D507" si="7">AVERAGE(C482:C488)</f>
+        <f t="shared" ref="D488:D508" si="7">AVERAGE(C482:C488)</f>
         <v>4.1428571428571432</v>
       </c>
     </row>
@@ -20504,6 +20518,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>5</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="7"/>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -20526,8 +20547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26870,7 +26891,7 @@
         <v>1</v>
       </c>
       <c r="D505" s="3">
-        <f t="shared" ref="D505:D507" si="12">AVERAGE(C499:C505)</f>
+        <f t="shared" ref="D505:D508" si="12">AVERAGE(C499:C505)</f>
         <v>1.1428571428571428</v>
       </c>
     </row>
@@ -26901,6 +26922,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>2</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="12"/>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D006F7B-EFB3-E74B-B7B9-E6B918B1201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D47A3B6-C2F2-6A41-9D7E-76BB635BB662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
     <sheet name="Deceduti" sheetId="2" r:id="rId2"/>
     <sheet name="Dimessi   Guariti" sheetId="3" r:id="rId3"/>
     <sheet name="Ricoveri" sheetId="4" r:id="rId4"/>
+    <sheet name="Terapia" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>data</t>
   </si>
@@ -55,6 +56,9 @@
   </si>
   <si>
     <t>Ricoverati</t>
+  </si>
+  <si>
+    <t>Terapia intensiva</t>
   </si>
 </sst>
 </file>
@@ -421,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J510"/>
+  <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
+      <selection activeCell="C522" sqref="C522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6292,11 +6296,11 @@
         <v>44313</v>
       </c>
       <c r="C415">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D415" s="3">
         <f t="shared" si="5"/>
-        <v>44.428571428571431</v>
+        <v>44.285714285714285</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -6308,7 +6312,7 @@
       </c>
       <c r="D416" s="3">
         <f t="shared" si="5"/>
-        <v>42.714285714285715</v>
+        <v>42.571428571428569</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -6316,11 +6320,11 @@
         <v>44315</v>
       </c>
       <c r="C417">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D417" s="3">
         <f t="shared" si="5"/>
-        <v>41.428571428571431</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -6328,7 +6332,7 @@
         <v>44316</v>
       </c>
       <c r="C418">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D418" s="3">
         <f t="shared" si="5"/>
@@ -6364,11 +6368,11 @@
         <v>44319</v>
       </c>
       <c r="C421">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D421" s="3">
         <f t="shared" si="5"/>
-        <v>41.142857142857146</v>
+        <v>41.285714285714285</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -6380,7 +6384,7 @@
       </c>
       <c r="D422" s="3">
         <f t="shared" si="5"/>
-        <v>39.428571428571431</v>
+        <v>39.714285714285715</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -6392,7 +6396,7 @@
       </c>
       <c r="D423" s="3">
         <f t="shared" si="5"/>
-        <v>33.714285714285715</v>
+        <v>34</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -6400,11 +6404,11 @@
         <v>44322</v>
       </c>
       <c r="C424">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D424" s="3">
         <f t="shared" si="5"/>
-        <v>35.142857142857146</v>
+        <v>35.857142857142854</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -6412,11 +6416,11 @@
         <v>44323</v>
       </c>
       <c r="C425">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D425" s="3">
         <f t="shared" si="5"/>
-        <v>35.428571428571431</v>
+        <v>36.142857142857146</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -6424,11 +6428,11 @@
         <v>44324</v>
       </c>
       <c r="C426">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D426" s="3">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>36.857142857142854</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -6440,7 +6444,7 @@
       </c>
       <c r="D427" s="3">
         <f t="shared" si="5"/>
-        <v>37.428571428571431</v>
+        <v>38.285714285714285</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -6448,11 +6452,11 @@
         <v>44326</v>
       </c>
       <c r="C428">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D428" s="3">
         <f t="shared" si="5"/>
-        <v>37.857142857142854</v>
+        <v>38.714285714285715</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -6460,11 +6464,11 @@
         <v>44327</v>
       </c>
       <c r="C429">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D429" s="3">
         <f t="shared" si="5"/>
-        <v>40.285714285714285</v>
+        <v>41.285714285714285</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -6476,7 +6480,7 @@
       </c>
       <c r="D430" s="3">
         <f t="shared" si="5"/>
-        <v>44.428571428571431</v>
+        <v>45.428571428571431</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -6484,11 +6488,11 @@
         <v>44329</v>
       </c>
       <c r="C431">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D431" s="3">
         <f t="shared" si="5"/>
-        <v>40.857142857142854</v>
+        <v>41.714285714285715</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -6500,7 +6504,7 @@
       </c>
       <c r="D432" s="3">
         <f t="shared" si="5"/>
-        <v>38.142857142857146</v>
+        <v>38.714285714285715</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -6512,7 +6516,7 @@
       </c>
       <c r="D433" s="3">
         <f t="shared" si="5"/>
-        <v>36.857142857142854</v>
+        <v>37.285714285714285</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -6524,7 +6528,7 @@
       </c>
       <c r="D434" s="3">
         <f t="shared" si="5"/>
-        <v>36.857142857142854</v>
+        <v>37.285714285714285</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -6536,7 +6540,7 @@
       </c>
       <c r="D435" s="3">
         <f t="shared" si="5"/>
-        <v>36.142857142857146</v>
+        <v>36.428571428571431</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -6544,7 +6548,7 @@
         <v>44334</v>
       </c>
       <c r="C436">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D436" s="3">
         <f t="shared" si="5"/>
@@ -6572,7 +6576,7 @@
       </c>
       <c r="D438" s="3">
         <f t="shared" si="5"/>
-        <v>32.142857142857146</v>
+        <v>32</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -6584,7 +6588,7 @@
       </c>
       <c r="D439" s="3">
         <f t="shared" si="5"/>
-        <v>32.142857142857146</v>
+        <v>32</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -6596,7 +6600,7 @@
       </c>
       <c r="D440" s="3">
         <f t="shared" si="5"/>
-        <v>29.714285714285715</v>
+        <v>29.571428571428573</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -6604,11 +6608,11 @@
         <v>44339</v>
       </c>
       <c r="C441">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D441" s="3">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>26.714285714285715</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -6620,7 +6624,7 @@
       </c>
       <c r="D442" s="3">
         <f t="shared" si="5"/>
-        <v>27.285714285714285</v>
+        <v>27</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -6632,7 +6636,7 @@
       </c>
       <c r="D443" s="3">
         <f t="shared" si="5"/>
-        <v>28.857142857142858</v>
+        <v>28.714285714285715</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -6644,7 +6648,7 @@
       </c>
       <c r="D444" s="3">
         <f t="shared" si="5"/>
-        <v>30.857142857142858</v>
+        <v>30.714285714285715</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -6656,7 +6660,7 @@
       </c>
       <c r="D445" s="3">
         <f t="shared" si="5"/>
-        <v>22.428571428571427</v>
+        <v>22.285714285714285</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -6668,7 +6672,7 @@
       </c>
       <c r="D446" s="3">
         <f t="shared" si="5"/>
-        <v>17.857142857142858</v>
+        <v>17.714285714285715</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -6680,7 +6684,7 @@
       </c>
       <c r="D447" s="3">
         <f t="shared" si="5"/>
-        <v>16.428571428571427</v>
+        <v>16.285714285714285</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -6931,7 +6935,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D508" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D521" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7000,11 +7004,11 @@
         <v>44372</v>
       </c>
       <c r="C474">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="D474" s="3">
         <f t="shared" si="6"/>
-        <v>2.7142857142857144</v>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
@@ -7016,7 +7020,7 @@
       </c>
       <c r="D475" s="3">
         <f t="shared" si="6"/>
-        <v>2.4285714285714284</v>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -7028,7 +7032,7 @@
       </c>
       <c r="D476" s="3">
         <f t="shared" si="6"/>
-        <v>2.2857142857142856</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
@@ -7040,7 +7044,7 @@
       </c>
       <c r="D477" s="3">
         <f t="shared" si="6"/>
-        <v>2.5714285714285716</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
@@ -7052,7 +7056,7 @@
       </c>
       <c r="D478" s="3">
         <f t="shared" si="6"/>
-        <v>2.5714285714285716</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
@@ -7064,7 +7068,7 @@
       </c>
       <c r="D479" s="3">
         <f t="shared" si="6"/>
-        <v>3.2857142857142856</v>
+        <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
@@ -7076,7 +7080,7 @@
       </c>
       <c r="D480" s="3">
         <f t="shared" si="6"/>
-        <v>3.2857142857142856</v>
+        <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -7312,11 +7316,11 @@
         <v>44398</v>
       </c>
       <c r="C500">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D500" s="3">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4.8571428571428568</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -7328,7 +7332,7 @@
       </c>
       <c r="D501" s="3">
         <f t="shared" si="6"/>
-        <v>6.7142857142857144</v>
+        <v>6.5714285714285712</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
@@ -7340,7 +7344,7 @@
       </c>
       <c r="D502" s="3">
         <f t="shared" si="6"/>
-        <v>8.7142857142857135</v>
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
@@ -7352,7 +7356,7 @@
       </c>
       <c r="D503" s="3">
         <f t="shared" si="6"/>
-        <v>9.5714285714285712</v>
+        <v>9.4285714285714288</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
@@ -7364,7 +7368,7 @@
       </c>
       <c r="D504" s="3">
         <f t="shared" si="6"/>
-        <v>11.142857142857142</v>
+        <v>11</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -7376,7 +7380,7 @@
       </c>
       <c r="D505" s="3">
         <f t="shared" si="6"/>
-        <v>10.857142857142858</v>
+        <v>10.714285714285714</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
@@ -7388,7 +7392,7 @@
       </c>
       <c r="D506" s="3">
         <f t="shared" si="6"/>
-        <v>11.857142857142858</v>
+        <v>11.714285714285714</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -7419,10 +7423,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>11</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="6"/>
+        <v>14.142857142857142</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>15</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="6"/>
+        <v>14.857142857142858</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>2</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="6"/>
+        <v>13.142857142857142</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>7</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>20</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="6"/>
+        <v>14.428571428571429</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>18</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="6"/>
+        <v>13.428571428571429</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>37</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="6"/>
+        <v>15.714285714285714</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>29</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="6"/>
+        <v>18.285714285714285</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>21</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="6"/>
+        <v>19.142857142857142</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>7</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="6"/>
+        <v>19.857142857142858</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>13</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="6"/>
+        <v>20.714285714285715</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>14</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="6"/>
+        <v>19.857142857142858</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>18</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="6"/>
+        <v>19.857142857142858</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -7433,10 +7683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G510"/>
+  <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A491" workbookViewId="0">
+      <selection activeCell="C521" sqref="C521:D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14127,10 +14377,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" ref="D509" si="21">AVERAGE(C503:C509)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" ref="D510" si="22">AVERAGE(C504:C510)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" ref="D511" si="23">AVERAGE(C505:C511)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" ref="D512" si="24">AVERAGE(C506:C512)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" ref="D513" si="25">AVERAGE(C507:C513)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" ref="D514" si="26">AVERAGE(C508:C514)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" ref="D515" si="27">AVERAGE(C509:C515)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" ref="D516:D518" si="28">AVERAGE(C510:C516)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="28"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="28"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" ref="D519" si="29">AVERAGE(C513:C519)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" ref="D520" si="30">AVERAGE(C514:C520)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" ref="D521" si="31">AVERAGE(C515:C521)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -14141,10 +14637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+      <selection activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20283,7 +20779,7 @@
         <v>5</v>
       </c>
       <c r="D488" s="3">
-        <f t="shared" ref="D488:D508" si="7">AVERAGE(C482:C488)</f>
+        <f t="shared" ref="D488:D514" si="7">AVERAGE(C482:C488)</f>
         <v>4.1428571428571432</v>
       </c>
     </row>
@@ -20531,10 +21027,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>4</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="7"/>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>9</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="7"/>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="7"/>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>16</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="7"/>
+        <v>5.7142857142857144</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>5</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="7"/>
+        <v>5.8571428571428568</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>4</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" ref="D515:D521" si="8">AVERAGE(C509:C515)</f>
+        <v>5.7142857142857144</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>7</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="8"/>
+        <v>6.5714285714285712</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>14</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>7</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="8"/>
+        <v>7.7142857142857144</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>3</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>19</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="8"/>
+        <v>8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>7</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="8"/>
+        <v>8.7142857142857135</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -20545,10 +21287,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26935,14 +27677,542 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>2</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" ref="D509" si="13">AVERAGE(C503:C509)</f>
+        <v>1.5714285714285714</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>2</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" ref="D510" si="14">AVERAGE(C504:C510)</f>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>2</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" ref="D511:D513" si="15">AVERAGE(C505:C511)</f>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>4</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="15"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>4</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="15"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>4</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" ref="D514" si="16">AVERAGE(C508:C514)</f>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>4</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" ref="D515:D516" si="17">AVERAGE(C509:C515)</f>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>5</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="17"/>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>5</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" ref="D517:D518" si="18">AVERAGE(C511:C517)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>7</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="18"/>
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>7</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" ref="D519:D521" si="19">AVERAGE(C513:C519)</f>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>3</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>4</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D119867D-26F4-614C-96B5-B77F89A884C7}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>44397</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>44398</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>44399</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>44400</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>44401</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>44402</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>44403</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>44404</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <f>AVERAGE(C2:C9)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>44405</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D24" si="0">AVERAGE(C3:C10)</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>44406</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>44407</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>44408</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D47A3B6-C2F2-6A41-9D7E-76BB635BB662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC2DCED-4634-9349-80D0-173DBDBBA503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="C522" sqref="C522"/>
+    <sheetView topLeftCell="A499" workbookViewId="0">
+      <selection activeCell="D522" sqref="D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D521" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D522" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7578,6 +7578,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>23</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="6"/>
+        <v>17.857142857142858</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -7686,7 +7693,7 @@
   <dimension ref="A1:G541"/>
   <sheetViews>
     <sheetView topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="C521" sqref="C521:D521"/>
+      <selection activeCell="C522" sqref="C522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14532,6 +14539,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" ref="D522" si="32">AVERAGE(C516:C522)</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -14640,7 +14654,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="D521" sqref="D521"/>
+      <selection activeCell="D522" sqref="D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21103,7 +21117,7 @@
         <v>4</v>
       </c>
       <c r="D515" s="3">
-        <f t="shared" ref="D515:D521" si="8">AVERAGE(C509:C515)</f>
+        <f t="shared" ref="D515:D522" si="8">AVERAGE(C509:C515)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -21182,6 +21196,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>21</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="8"/>
+        <v>11.142857142857142</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -21290,7 +21311,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="D521" sqref="D521"/>
+      <selection activeCell="D522" sqref="D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27801,7 +27822,7 @@
         <v>7</v>
       </c>
       <c r="D519" s="3">
-        <f t="shared" ref="D519:D521" si="19">AVERAGE(C513:C519)</f>
+        <f t="shared" ref="D519:D522" si="19">AVERAGE(C513:C519)</f>
         <v>5.1428571428571432</v>
       </c>
     </row>
@@ -27832,6 +27853,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>4</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="19"/>
+        <v>5</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -27937,10 +27965,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D119867D-26F4-614C-96B5-B77F89A884C7}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28212,6 +28240,17 @@
         <v>0.375</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>44420</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC2DCED-4634-9349-80D0-173DBDBBA503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BBC3BA-FB37-0047-9513-4158EAD050DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="11000" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J541"/>
   <sheetViews>
     <sheetView topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="D522" sqref="D522"/>
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6935,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D522" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D523" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7590,6 +7590,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>20</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="6"/>
+        <v>16.571428571428573</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -7692,8 +7699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="C522" sqref="C522:D522"/>
+    <sheetView topLeftCell="A497" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14544,13 +14551,20 @@
         <v>0</v>
       </c>
       <c r="D522" s="3">
-        <f t="shared" ref="D522" si="32">AVERAGE(C516:C522)</f>
+        <f>AVERAGE(C516:C522)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523" s="3">
+        <f>AVERAGE(C517:C523)</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -14654,7 +14668,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="D522" sqref="D522"/>
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21117,7 +21131,7 @@
         <v>4</v>
       </c>
       <c r="D515" s="3">
-        <f t="shared" ref="D515:D522" si="8">AVERAGE(C509:C515)</f>
+        <f t="shared" ref="D515:D523" si="8">AVERAGE(C509:C515)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -21208,6 +21222,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>15</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="8"/>
+        <v>12.285714285714286</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -21310,8 +21331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="D522" sqref="D522"/>
+    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27822,7 +27843,7 @@
         <v>7</v>
       </c>
       <c r="D519" s="3">
-        <f t="shared" ref="D519:D522" si="19">AVERAGE(C513:C519)</f>
+        <f t="shared" ref="D519:D523" si="19">AVERAGE(C513:C519)</f>
         <v>5.1428571428571432</v>
       </c>
     </row>
@@ -27865,6 +27886,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>5</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="19"/>
+        <v>5</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -27965,10 +27993,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D119867D-26F4-614C-96B5-B77F89A884C7}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28251,6 +28279,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>44421</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BBC3BA-FB37-0047-9513-4158EAD050DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3287038-9F06-624F-A878-934563DEA6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="6360" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
     <sheet name="Deceduti" sheetId="2" r:id="rId2"/>
     <sheet name="Dimessi   Guariti" sheetId="3" r:id="rId3"/>
     <sheet name="Ricoveri" sheetId="4" r:id="rId4"/>
-    <sheet name="Terapia" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>data</t>
   </si>
@@ -56,9 +55,6 @@
   </si>
   <si>
     <t>Ricoverati</t>
-  </si>
-  <si>
-    <t>Terapia intensiva</t>
   </si>
 </sst>
 </file>
@@ -427,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="C517" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6935,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D523" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D540" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7603,88 +7599,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>17</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="6"/>
+        <v>15.142857142857142</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>11</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="6"/>
+        <v>14.857142857142858</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>29</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>16</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="6"/>
+        <v>16.714285714285715</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>21</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="6"/>
+        <v>16.428571428571427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>30</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="6"/>
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>20</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="6"/>
+        <v>18.285714285714285</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>2</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="6"/>
+        <v>18.428571428571427</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>53</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="6"/>
+        <v>24.428571428571427</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>36</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="6"/>
+        <v>25.428571428571427</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>38</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="6"/>
+        <v>28.571428571428573</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>32</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="6"/>
+        <v>30.142857142857142</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>34</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="6"/>
+        <v>30.714285714285715</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>26</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="6"/>
+        <v>31.571428571428573</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>-1</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="6"/>
+        <v>31.142857142857142</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>13</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="6"/>
+        <v>25.428571428571427</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -7699,8 +7814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView topLeftCell="A497" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="C511" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14551,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="D522" s="3">
-        <f>AVERAGE(C516:C522)</f>
+        <f t="shared" ref="D522:D540" si="32">AVERAGE(C516:C522)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -14563,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="D523" s="3">
-        <f>AVERAGE(C517:C523)</f>
+        <f t="shared" si="32"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -14571,88 +14686,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>0</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>0</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>0</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>0</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>0</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>0</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>0</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="32"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="32"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>0</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="32"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -14667,8 +14901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="C512" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21131,7 +21365,7 @@
         <v>4</v>
       </c>
       <c r="D515" s="3">
-        <f t="shared" ref="D515:D523" si="8">AVERAGE(C509:C515)</f>
+        <f t="shared" ref="D515:D540" si="8">AVERAGE(C509:C515)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -21235,88 +21469,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>7</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="8"/>
+        <v>11.285714285714286</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>15</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="8"/>
+        <v>12.428571428571429</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>4</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="8"/>
+        <v>12.571428571428571</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="8"/>
+        <v>9.8571428571428577</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>35</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="8"/>
+        <v>13.857142857142858</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>50</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>8</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>4</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="8"/>
+        <v>16.571428571428573</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>12</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="8"/>
+        <v>16.142857142857142</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>5</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="8"/>
+        <v>16.285714285714285</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>36</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="8"/>
+        <v>21.428571428571427</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>23</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="8"/>
+        <v>19.714285714285715</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>4</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="8"/>
+        <v>13.142857142857142</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>17</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="8"/>
+        <v>14.428571428571429</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>10</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="8"/>
+        <v>15.285714285714286</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>14</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="8"/>
+        <v>15.571428571428571</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>0</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="8"/>
+        <v>14.857142857142858</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -21331,8 +21684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="C514" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27843,7 +28196,7 @@
         <v>7</v>
       </c>
       <c r="D519" s="3">
-        <f t="shared" ref="D519:D523" si="19">AVERAGE(C513:C519)</f>
+        <f t="shared" ref="D519:D525" si="19">AVERAGE(C513:C519)</f>
         <v>5.1428571428571432</v>
       </c>
     </row>
@@ -27899,88 +28252,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>5</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>5</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="19"/>
+        <v>4.7142857142857144</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>5</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" ref="D526:D527" si="20">AVERAGE(C520:C526)</f>
+        <v>4.4285714285714288</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>5</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="20"/>
+        <v>4.7142857142857144</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>5</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" ref="D528" si="21">AVERAGE(C522:C528)</f>
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>5</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" ref="D529:D530" si="22">AVERAGE(C523:C529)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>6</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="22"/>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>6</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" ref="D531" si="23">AVERAGE(C525:C531)</f>
+        <v>5.2857142857142856</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>6</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" ref="D532" si="24">AVERAGE(C526:C532)</f>
+        <v>5.4285714285714288</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>6</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" ref="D533:D536" si="25">AVERAGE(C527:C533)</f>
+        <v>5.5714285714285712</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>8</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>9</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="25"/>
+        <v>6.5714285714285712</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>10</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="25"/>
+        <v>7.2857142857142856</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>10</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" ref="D537" si="26">AVERAGE(C531:C537)</f>
+        <v>7.8571428571428568</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>10</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" ref="D538" si="27">AVERAGE(C532:C538)</f>
+        <v>8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>10</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" ref="D539:D540" si="28">AVERAGE(C533:C539)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>11</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="28"/>
+        <v>9.7142857142857135</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -27989,308 +28461,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D119867D-26F4-614C-96B5-B77F89A884C7}">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>44397</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>44398</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>44399</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>44400</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>44401</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>44402</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>44403</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>44404</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <f>AVERAGE(C2:C9)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>44405</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D24" si="0">AVERAGE(C3:C10)</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>44406</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>44407</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>44408</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>44409</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>44410</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>44411</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>44412</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>44413</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>44414</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>44415</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>44416</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>44417</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>44418</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>44419</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>44420</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>44421</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3287038-9F06-624F-A878-934563DEA6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4348E5E-7296-ED4E-8A56-FA9AD3A21E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J541"/>
   <sheetViews>
     <sheetView topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="C517" sqref="C1:C1048576"/>
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D540" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D541" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7802,6 +7802,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>18</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="6"/>
+        <v>22.857142857142858</v>
       </c>
     </row>
   </sheetData>
@@ -7815,7 +7822,7 @@
   <dimension ref="A1:G541"/>
   <sheetViews>
     <sheetView topLeftCell="A511" workbookViewId="0">
-      <selection activeCell="C511" sqref="C1:C1048576"/>
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14666,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="D522" s="3">
-        <f t="shared" ref="D522:D540" si="32">AVERAGE(C516:C522)</f>
+        <f t="shared" ref="D522:D541" si="32">AVERAGE(C516:C522)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -14889,6 +14896,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="32"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -14901,8 +14915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="C512" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21365,7 +21379,7 @@
         <v>4</v>
       </c>
       <c r="D515" s="3">
-        <f t="shared" ref="D515:D540" si="8">AVERAGE(C509:C515)</f>
+        <f t="shared" ref="D515:D541" si="8">AVERAGE(C509:C515)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -21672,6 +21686,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>19</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="8"/>
+        <v>12.428571428571429</v>
       </c>
     </row>
   </sheetData>
@@ -21684,8 +21705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="C514" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28436,7 +28457,7 @@
         <v>10</v>
       </c>
       <c r="D539" s="3">
-        <f t="shared" ref="D539:D540" si="28">AVERAGE(C533:C539)</f>
+        <f t="shared" ref="D539:D541" si="28">AVERAGE(C533:C539)</f>
         <v>9</v>
       </c>
     </row>
@@ -28455,6 +28476,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>11</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="28"/>
+        <v>10.142857142857142</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4348E5E-7296-ED4E-8A56-FA9AD3A21E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7723FA4-3B9F-544B-87FE-6EA74A8A2FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J541"/>
+  <dimension ref="A1:J542"/>
   <sheetViews>
-    <sheetView topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D541" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D542" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7809,6 +7809,18 @@
       <c r="D541" s="3">
         <f t="shared" si="6"/>
         <v>22.857142857142858</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>34</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="6"/>
+        <v>22.285714285714285</v>
       </c>
     </row>
   </sheetData>
@@ -7819,10 +7831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G541"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
-    <sheetView topLeftCell="A511" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+    <sheetView topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14901,7 +14913,19 @@
         <v>1</v>
       </c>
       <c r="D541" s="3">
-        <f t="shared" si="32"/>
+        <f>AVERAGE(C535:C541)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" ref="D542" si="33">AVERAGE(C536:C542)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -14913,10 +14937,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+    <sheetView topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21379,7 +21403,7 @@
         <v>4</v>
       </c>
       <c r="D515" s="3">
-        <f t="shared" ref="D515:D541" si="8">AVERAGE(C509:C515)</f>
+        <f t="shared" ref="D515:D542" si="8">AVERAGE(C509:C515)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -21693,6 +21717,18 @@
       <c r="D541" s="3">
         <f t="shared" si="8"/>
         <v>12.428571428571429</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>35</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="8"/>
+        <v>14.142857142857142</v>
       </c>
     </row>
   </sheetData>
@@ -21703,10 +21739,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28485,6 +28521,18 @@
         <v>10.142857142857142</v>
       </c>
     </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>11</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" ref="D542" si="29">AVERAGE(C536:C542)</f>
+        <v>10.428571428571429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7723FA4-3B9F-544B-87FE-6EA74A8A2FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B265691-7B79-A64D-9A5F-B090F3CFB277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J542"/>
+  <dimension ref="A1:J571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+    <sheetView topLeftCell="A527" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D542" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D543" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7821,6 +7821,158 @@
       <c r="D542" s="3">
         <f t="shared" si="6"/>
         <v>22.285714285714285</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>9</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -7831,10 +7983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G542"/>
+  <dimension ref="A1:G571"/>
   <sheetViews>
     <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14685,7 +14837,7 @@
         <v>0</v>
       </c>
       <c r="D522" s="3">
-        <f t="shared" ref="D522:D541" si="32">AVERAGE(C516:C522)</f>
+        <f t="shared" ref="D522:D540" si="32">AVERAGE(C516:C522)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -14925,8 +15077,160 @@
         <v>0</v>
       </c>
       <c r="D542" s="3">
-        <f t="shared" ref="D542" si="33">AVERAGE(C536:C542)</f>
+        <f t="shared" ref="D542:D543" si="33">AVERAGE(C536:C542)</f>
         <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="33"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -14937,10 +15241,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21403,7 +21707,7 @@
         <v>4</v>
       </c>
       <c r="D515" s="3">
-        <f t="shared" ref="D515:D542" si="8">AVERAGE(C509:C515)</f>
+        <f t="shared" ref="D515:D543" si="8">AVERAGE(C509:C515)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -21729,6 +22033,158 @@
       <c r="D542" s="3">
         <f t="shared" si="8"/>
         <v>14.142857142857142</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>24</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -21739,10 +22195,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+    <sheetView topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28529,8 +28985,160 @@
         <v>11</v>
       </c>
       <c r="D542" s="3">
-        <f t="shared" ref="D542" si="29">AVERAGE(C536:C542)</f>
+        <f t="shared" ref="D542:D543" si="29">AVERAGE(C536:C542)</f>
         <v>10.428571428571429</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>13</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="29"/>
+        <v>10.857142857142858</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Crotone/Crotone.xlsx
+++ b/dati/provincia/Crotone/Crotone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Crotone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B265691-7B79-A64D-9A5F-B090F3CFB277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C935FF5D-BAB6-F945-B981-5801CA325ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J571"/>
   <sheetViews>
     <sheetView topLeftCell="A527" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D543" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D544" si="6">AVERAGE(C462:C468)</f>
         <v>7.7142857142857144</v>
       </c>
     </row>
@@ -7838,6 +7838,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544">
+        <v>23</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="6"/>
+        <v>17.428571428571427</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -7985,8 +7992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G571"/>
   <sheetViews>
-    <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+    <sheetView topLeftCell="A515" workbookViewId="0">
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15077,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="D542" s="3">
-        <f t="shared" ref="D542:D543" si="33">AVERAGE(C536:C542)</f>
+        <f t="shared" ref="D542:D544" si="33">AVERAGE(C536:C542)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -15096,6 +15103,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544">
+        <v>3</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="33"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -15244,7 +15258,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21707,7 +21721,7 @@
         <v>4</v>
       </c>
       <c r="D515" s="3">
-        <f t="shared" ref="D515:D543" si="8">AVERAGE(C509:C515)</f>
+        <f t="shared" ref="D515:D544" si="8">AVERAGE(C509:C515)</f>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -22050,6 +22064,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544">
+        <v>29</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="8"/>
+        <v>18.714285714285715</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -22198,7 +22219,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView topLeftCell="A519" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28985,7 +29006,7 @@
         <v>11</v>
       </c>
       <c r="D542" s="3">
-        <f t="shared" ref="D542:D543" si="29">AVERAGE(C536:C542)</f>
+        <f t="shared" ref="D542:D544" si="29">AVERAGE(C536:C542)</f>
         <v>10.428571428571429</v>
       </c>
     </row>
@@ -29004,6 +29025,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544">
+        <v>12</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="29"/>
+        <v>11.142857142857142</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
